--- a/gg.xlsx
+++ b/gg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E:/original/coding/qr-detector/src/2 images\00 - 0003.png</t>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0002.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E:/original/coding/qr-detector/src/2 images\00 - 0038.png</t>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0003.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -512,6 +512,3212 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0004.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0005.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-06-26 09:11:39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68424.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8924.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0007.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0008.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-06-26 09:09:26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23255.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3033.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0009.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0010.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2022-06-26 09:01:56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17122.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2233.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0011.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2022-06-26 08:57:23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68932.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8991.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0012.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0013.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-06-26 08:53:20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26117.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3406.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0014.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0015.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2022-06-27 11:47:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3264.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>425.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0016.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2022-06-28 17:35:24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25675.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3348.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0017.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0018.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0019.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2022-06-30 10:02:08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2070.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>270.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0020.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2022-06-29 17:04:17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7184.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>937.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0021.png</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2022-06-29 17:03:37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6311.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>823.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0022.png</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2022-06-29 17:02:09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6224.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>811.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0023.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022-06-29 16:59:50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1084.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>141.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0024.png</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Makkarem Al-Nokhba Co.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>301191866310003</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2022-06-30 17:40:18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>745.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0025.png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0026.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0028.png</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SHAM NAJD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>300048782900003</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2022-07-27 10:22:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6521.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0029.png</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022-08-07T22:56:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1380.0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0030.png</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2022-07-31T20:19:46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4364.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>569.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0031.png</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2022-08-15T22:39:39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5187.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>676.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0033.png</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0034.png</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Eشركة تكملـــة المشـاريــع التجاريــة</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>311243712500003</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2022-08-02T10:19:22Z</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>45067.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5878.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0035.png</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مؤسسة وقايتي للمقاولات </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>302110315200003</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2022-08-03 15:29:13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>353361.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>46090.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0036.png</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0037.png</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2022-08-07T16:07:22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4864.5</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>634.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0038.png</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0039.png</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0040.png</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2022-08-07T23:01:28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4766.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>621.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0041.png</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0042.png</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>شركة محمد معزى بن عميرة للتجارة - 1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>310150132200003</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2022-08-08T14:08:41Z</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4872.872</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>635.592</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0043.png</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>شركة محمد معزى بن عميرة للتجارة - 1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>310150132200003</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022-08-08T14:08:41Z</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4872.872</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>635.592</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0044.png</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0045.png</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0046.png</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0047.png</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>/مؤسسة مشوار العمل للتجارة</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>310012490700003</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2022-08-11T21:34:47Z</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0051.png</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0052.png</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0053.png</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Bشركة الزاوية الثلجية لأعمال التكييف</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>311275889100003</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022-08-09 14:42:27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>168100</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>21926.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0054.png</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022-08-09T22:52:03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>104149.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>13584.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0056.png</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2022-08-09T22:39:13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9788.8</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1276.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0058.png</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0060.png</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ALRAED ALARABI INDAUSTRY AND TRADING CO. LTD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>300054073700003</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2022-08-10T03:59:48Z</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22080</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0062.png</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0063.png</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0064.png</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0065.png</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0067.png</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0068.png</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0069.png</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0070.png</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0071.png</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0072.png</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0074.png</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2022-08-07T22:56:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1380.0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0075.png</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2022-07-31T20:19:46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4364.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>569.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0076.png</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2022-08-15T22:39:39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5187.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>676.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0078.png</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0079.png</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2022-08-15T22:31:44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>22499.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2934.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0081.png</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0082.png</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0084.png</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0085.png</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>/مؤسسة مشوار العمل للتجارة</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>310012490700003</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2022-08-27T09:10:26Z</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>255.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0086.png</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>/مؤسسة مشوار العمل للتجارة</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>310012490700003</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2022-08-27T09:10:26Z</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>255.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0087.png</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>/مؤسسة مشوار العمل للتجارة</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>310012490700003</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2022-08-27T09:34:19Z</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>287.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0088.png</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0089.png</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0090.png</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>"مؤسسة اباد للتجارة</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>300041174500003</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2022-09-01T18:06:02Z</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>630.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0091.png</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&amp;ورشة محمد عليى السيف </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>302063260500003</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2022-09-01T07:52:00Z</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>416.27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>54.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0092.png</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DIYAR AL MAREFA TRADING CO.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>311154290400003</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>05/09/2022 10:57:15 AM</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>5185</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>679.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0093.png</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0094.png</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0096.png</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0099.png</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0101.png</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0102.png</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0104.png</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>مصنع غرف الشائع للصناعة</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>310444172800003</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2022-08-22T13:03:34Z</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>13600.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1773.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0106.png</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0107.png</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0108.png</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Golden Hands Est.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>310597963800003</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022-08-23T09:12:56</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>11500.0</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0110.png</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0111.png</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0112.png</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0113.png</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>vشركة حمد بن عبدالله بن سليمان المنيع وشركاه للتجارة مساهمة مقفلة</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>300356861200003</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022-08-23T06:48:5000000Z</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3382.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>441.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0114.png</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0115.png</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0119.png</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0121.png</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0123.png</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0124.png</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0126.png</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0128.png</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022-09-10T13:37:52</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>23005.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>3000.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0130.png</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>9مؤسسة الامتياز الرائدة للتجارة</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>310307144200003</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022-08-25T14:42:45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4203.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>548.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>E:/original/coding/qr-detector/New folder\00 - 0132.png</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/gg.xlsx
+++ b/gg.xlsx
@@ -456,64 +456,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E:/original/coding/qr-detector/2 images\00 - 0003.png</t>
+          <t>F:/original/coding/qr-detector/2 images\00 - 0003.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qr not detected</t>
+          <t>Integrated Steel Company</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31088287900003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22309.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3346.43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E:/original/coding/qr-detector/2 images\00 - 0038.png</t>
+          <t>F:/original/coding/qr-detector/2 images\00 - 0038.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qr not detected</t>
+          <t>Al-Hawamish Trading Est.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30207091600003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>961.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>144.18</t>
         </is>
       </c>
     </row>

--- a/gg.xlsx
+++ b/gg.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Integrated Steel Company</t>
+          <t>Integrated Steel Company for Cable Tray System(ISP)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31088287900003</t>
+          <t>31080000057900003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3346.43</t>
+          <t>2398.00</t>
         </is>
       </c>
     </row>
@@ -493,17 +493,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Hawamish Trading Est.</t>
+          <t>Al-Hawamah Trading Est.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30207091600003</t>
+          <t>3020709160003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-08-07</t>
+          <t>2022/08/07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/gg.xlsx
+++ b/gg.xlsx
@@ -461,28 +461,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Integrated Steel Company</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>311828547900003</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2022-07-05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25,908.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2,329.60</t>
-        </is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -493,28 +485,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Hawamish Trading Est.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3020709160003</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>961.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>144.18</t>
-        </is>
+          <t>qr not detected</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
